--- a/biology/Histoire de la zoologie et de la botanique/Malcolm_Arthur_Smith/Malcolm_Arthur_Smith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Malcolm_Arthur_Smith/Malcolm_Arthur_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malcolm Arthur Smith est un herpétologiste  britannique, né en 1875 à New Malden, dans le Surrey, et mort le 22 juillet 1958 à Ascot, près de Windsor.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Intéressé très tôt par les reptiles et les amphibiens, il se tourne vers des études médicales, seule façon pour lui de pouvoir continuer à les étudier et à vivre décemment. Il est diplômé de médecine et de chirurgie à Londres en 1898.
 Smith part alors dans le Royaume de Siam (aujourd’hui la Thaïlande) comme médecin de l’ambassade britannique à Bangkok. Peu de temps après, il devient le médecin de la cour royale siamoise. Il évoquera plus tard, en 1947, dans son livre A Physician at the Court of Siam, son expérience comme médecin et comme confident du roi et de la reine de Siam.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1926 : Monograph of the sea snakes (Hydrophiidae). Londres : British Museum. 130 p.
 1931-1943 : Reptilia and amphibia dans la série The fauna of British India, including Ceylon and Burma (Taylor and Francis).
